--- a/data/qp_Cp_Retentostat.xlsx
+++ b/data/qp_Cp_Retentostat.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben-c\Documents\Retentostat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ben-c\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E2834-2D0B-47F2-92BC-8FB5B9722173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E92235-E20D-4559-8F27-8F937D78777D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="4335" windowWidth="12285" windowHeight="5415" xr2:uid="{A21E2B8A-97B4-42E3-933E-40A517CCA2AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A21E2B8A-97B4-42E3-933E-40A517CCA2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="C030" sheetId="1" r:id="rId1"/>
     <sheet name="C024" sheetId="2" r:id="rId2"/>
     <sheet name="C023" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="C097" sheetId="5" r:id="rId5"/>
-    <sheet name="C098" sheetId="6" r:id="rId6"/>
-    <sheet name="C025" sheetId="7" r:id="rId7"/>
-    <sheet name="C026" sheetId="9" r:id="rId8"/>
-    <sheet name="C029" sheetId="8" r:id="rId9"/>
+    <sheet name="C025" sheetId="7" r:id="rId5"/>
+    <sheet name="C026" sheetId="9" r:id="rId6"/>
+    <sheet name="C029" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="22">
   <si>
     <t>time (h)</t>
   </si>
@@ -598,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB0A690-E4FF-4654-9BD8-0859EB9DB0DE}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3527,11 +3525,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A72B7ED-1C83-4603-8946-710A8446509A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D51DB7-9C79-4134-B08C-CB690592D46F}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,295 +3568,295 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.51531200000003</v>
+        <v>4.5496259999999014</v>
       </c>
       <c r="C2" s="2">
-        <v>2.5081874404305482E-2</v>
+        <v>2.4964608320098901E-2</v>
       </c>
       <c r="D2" s="16">
-        <v>66.091177054813087</v>
+        <v>45.27</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5">
-        <v>0.36712648032329265</v>
+        <v>0.24840455427564856</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="6">
-        <v>66.091177054813087</v>
+        <v>45.27</v>
       </c>
       <c r="I2" s="15">
         <f>H2</f>
-        <v>66.091177054813087</v>
+        <v>45.27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>22.000000000116415</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>6.3592699999999365</v>
+        <v>6.6794000000000269</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2231004207703299E-2</v>
+        <v>1.7434720188775437E-2</v>
       </c>
       <c r="D3" s="16">
-        <v>57.681327057187978</v>
+        <v>47.99</v>
       </c>
       <c r="E3" s="4">
-        <v>38.131292069486605</v>
+        <v>26.118517915848621</v>
       </c>
       <c r="F3" s="8">
-        <v>0.16343405905470201</v>
+        <v>0.17706936941915641</v>
       </c>
       <c r="G3" s="4">
-        <v>19.550047844718584</v>
+        <v>21.871482083240029</v>
       </c>
       <c r="H3" s="4">
-        <v>57.681339914205189</v>
+        <v>47.989999999088653</v>
       </c>
       <c r="I3" s="9">
         <f>I2+G3</f>
-        <v>85.641224899531665</v>
+        <v>67.141482083240035</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>44.666666666802485</v>
+        <v>44.67</v>
       </c>
       <c r="B4" s="1">
-        <v>7.444318000000095</v>
+        <v>7.82034000000007</v>
       </c>
       <c r="C4" s="2">
-        <v>7.0973467011519803E-3</v>
+        <v>6.9804708182983873E-3</v>
       </c>
       <c r="D4" s="14">
-        <v>51.89029633087501</v>
+        <v>54.76</v>
       </c>
       <c r="E4" s="4">
-        <v>32.729173406583037</v>
+        <v>27.230181965555008</v>
       </c>
       <c r="F4" s="8">
-        <v>0.12248233587948516</v>
+        <v>0.16752725159760062</v>
       </c>
       <c r="G4" s="4">
-        <v>19.161217953274129</v>
+        <v>27.52981803226141</v>
       </c>
       <c r="H4" s="4">
-        <v>51.890391359857162</v>
+        <v>54.759999997816422</v>
       </c>
       <c r="I4" s="9">
         <f t="shared" ref="I4:I30" si="0">I3+G4</f>
-        <v>104.8024428528058</v>
+        <v>94.671300115501452</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>68.666666666802485</v>
+        <v>68.67</v>
       </c>
       <c r="B5" s="10">
-        <v>8.2769015000001112</v>
+        <v>8.4119647499999868</v>
       </c>
       <c r="C5" s="11">
-        <v>4.6230184971063903E-3</v>
+        <v>5.9464557691645478E-3</v>
       </c>
       <c r="D5" s="12">
-        <v>48.31570920783517</v>
+        <v>46.8125</v>
       </c>
       <c r="E5" s="4">
-        <v>28.47799842675137</v>
+        <v>30.052925192508884</v>
       </c>
       <c r="F5" s="8">
-        <v>0.10515400845922732</v>
+        <v>8.6040229988494185E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>19.837790979508693</v>
+        <v>16.759574807199979</v>
       </c>
       <c r="H5" s="4">
-        <v>48.315789406260066</v>
+        <v>46.812499999708862</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" si="0"/>
-        <v>124.64023383231449</v>
+        <v>111.43087492270143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>92.666666666802485</v>
+        <v>92.67</v>
       </c>
       <c r="B6" s="10">
-        <v>9.1094850000001255</v>
+        <v>9.0035894999999044</v>
       </c>
       <c r="C6" s="11">
-        <v>3.3103539889279762E-3</v>
+        <v>4.9124407200307075E-3</v>
       </c>
       <c r="D6" s="12">
-        <v>44.741122084795336</v>
+        <v>38.864999999999995</v>
       </c>
       <c r="E6" s="4">
-        <v>26.516223419395235</v>
+        <v>25.69124471465161</v>
       </c>
       <c r="F6" s="8">
-        <v>8.7352492240725527E-2</v>
+        <v>6.3036348121644381E-2</v>
       </c>
       <c r="G6" s="4">
-        <v>18.224930302026308</v>
+        <v>13.173755285212518</v>
       </c>
       <c r="H6" s="4">
-        <v>44.74115372142154</v>
+        <v>38.864999999864125</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="0"/>
-        <v>142.8651641343408</v>
+        <v>124.60463020791396</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>116.66666666680248</v>
+        <v>116.67</v>
       </c>
       <c r="B7" s="10">
-        <v>9.9420685000001399</v>
+        <v>9.5952142499998203</v>
       </c>
       <c r="C7" s="11">
-        <v>2.5925362840346061E-3</v>
+        <v>3.878425670896868E-3</v>
       </c>
       <c r="D7" s="12">
-        <v>41.166534961755502</v>
+        <v>30.917499999999997</v>
       </c>
       <c r="E7" s="4">
-        <v>24.554448412039104</v>
+        <v>21.329564236794333</v>
       </c>
       <c r="F7" s="8">
-        <v>7.2662859234788157E-2</v>
+        <v>4.2959464374961447E-2</v>
       </c>
       <c r="G7" s="4">
-        <v>16.61208420209466</v>
+        <v>9.5879357653801502</v>
       </c>
       <c r="H7" s="4">
-        <v>41.166532614133764</v>
+        <v>30.917500002174485</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="0"/>
-        <v>159.47724833643545</v>
+        <v>134.19256597329411</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>141.16666666668607</v>
+        <v>141.16999999999999</v>
       </c>
       <c r="B8" s="1">
-        <v>10.774652000000156</v>
+        <v>10.186838999999738</v>
       </c>
       <c r="C8" s="2">
-        <v>2.1278153172507876E-3</v>
+        <v>2.8444106217630286E-3</v>
       </c>
       <c r="D8" s="14">
-        <v>37.591947838715662</v>
+        <v>22.97</v>
       </c>
       <c r="E8" s="4">
-        <v>22.312022708338358</v>
+        <v>16.757105321735683</v>
       </c>
       <c r="F8" s="8">
-        <v>6.0209100205180228E-2</v>
+        <v>2.5638138306665618E-2</v>
       </c>
       <c r="G8" s="4">
-        <v>15.279854981140954</v>
+        <v>6.2128939608335596</v>
       </c>
       <c r="H8" s="4">
-        <v>37.591877689479311</v>
+        <v>22.969999282569241</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="0"/>
-        <v>174.75710331757639</v>
+        <v>140.40545993412766</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>165.16666666668607</v>
+        <v>165.17</v>
       </c>
       <c r="B9" s="10">
-        <v>11.205208666666699</v>
+        <v>10.249778999999815</v>
       </c>
       <c r="C9" s="11">
-        <v>1.8316635161709722E-3</v>
+        <v>1.614184291496676E-3</v>
       </c>
       <c r="D9" s="12">
-        <v>39.883416835648447</v>
+        <v>19.156666666666666</v>
       </c>
       <c r="E9" s="4">
-        <v>20.630898397326842</v>
+        <v>12.606203281079786</v>
       </c>
       <c r="F9" s="8">
-        <v>7.299277647461852E-2</v>
+        <v>2.6710484511410646E-2</v>
       </c>
       <c r="G9" s="4">
-        <v>19.252452679023278</v>
+        <v>6.5504636226552506</v>
       </c>
       <c r="H9" s="4">
-        <v>39.883351076350124</v>
+        <v>19.156666903735037</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="0"/>
-        <v>194.00955599659966</v>
+        <v>146.95592355678292</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>188.66666666680248</v>
+        <v>189</v>
       </c>
       <c r="B10" s="1">
-        <v>12.066321999999785</v>
+        <v>10.375658999999969</v>
       </c>
       <c r="C10" s="2">
-        <v>1.6199231438351303E-3</v>
+        <v>3.839579612303234E-4</v>
       </c>
       <c r="D10" s="14">
-        <v>44.46635482951401</v>
+        <v>11.53</v>
       </c>
       <c r="E10" s="4">
-        <v>22.163806472343005</v>
+        <v>10.557298804395632</v>
       </c>
       <c r="F10" s="8">
-        <v>8.1562508665299821E-2</v>
+        <v>3.957505053625401E-3</v>
       </c>
       <c r="G10" s="4">
-        <v>22.3024919545541</v>
+        <v>0.97270119515819342</v>
       </c>
       <c r="H10" s="4">
-        <v>44.466298426897104</v>
+        <v>11.529999999553826</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="0"/>
-        <v>216.31204795115377</v>
+        <v>147.9286247519411</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>212.66666666680248</v>
+        <v>213</v>
       </c>
       <c r="B11" s="10">
-        <v>12.602165999999958</v>
+        <v>10.629283000000099</v>
       </c>
       <c r="C11" s="11">
-        <v>1.4603545378556659E-3</v>
+        <v>6.735462130972392E-4</v>
       </c>
       <c r="D11" s="12">
-        <v>39.632929521199955</v>
+        <v>10.739999999999998</v>
       </c>
       <c r="E11" s="4">
-        <v>24.403652945123095</v>
+        <v>6.3277981641641237</v>
       </c>
       <c r="F11" s="8">
-        <v>5.1446298448710272E-2</v>
+        <v>1.7504598654772757E-2</v>
       </c>
       <c r="G11" s="4">
-        <v>15.229228751116977</v>
+        <v>4.4121969537213719</v>
       </c>
       <c r="H11" s="4">
-        <v>39.632881696240077</v>
+        <v>10.739995117885496</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="0"/>
-        <v>231.54127670227075</v>
+        <v>152.34082170566248</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3866,29 +3864,29 @@
         <v>237</v>
       </c>
       <c r="B12" s="1">
-        <v>12.870088000000043</v>
+        <v>10.756095000000164</v>
       </c>
       <c r="C12" s="2">
-        <v>1.3336949380821353E-3</v>
+        <v>9.6313446496415489E-4</v>
       </c>
       <c r="D12" s="3">
-        <v>34.7995042128859</v>
+        <v>9.9499999999999993</v>
       </c>
       <c r="E12" s="4">
-        <v>21.570507602989135</v>
+        <v>5.8942369716498426</v>
       </c>
       <c r="F12" s="8">
-        <v>4.2685963914458676E-2</v>
+        <v>1.5804272743884202E-2</v>
       </c>
       <c r="G12" s="4">
-        <v>13.228910533203925</v>
+        <v>4.0557641597167802</v>
       </c>
       <c r="H12" s="4">
-        <v>34.799418136193061</v>
+        <v>9.9500011313666228</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="0"/>
-        <v>244.77018723547468</v>
+        <v>156.39658586537925</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -3896,29 +3894,29 @@
         <v>261</v>
       </c>
       <c r="B13" s="10">
-        <v>12.938388000000096</v>
+        <v>10.57020725000014</v>
       </c>
       <c r="C13" s="11">
-        <v>1.2289197431222881E-3</v>
+        <v>8.654124471716082E-4</v>
       </c>
       <c r="D13" s="12">
-        <v>30.528083186686814</v>
+        <v>9.9450000000000003</v>
       </c>
       <c r="E13" s="4">
-        <v>19.098372842334875</v>
+        <v>5.4606757791355625</v>
       </c>
       <c r="F13" s="8">
-        <v>3.6905239003082881E-2</v>
+        <v>1.7522649483535081E-2</v>
       </c>
       <c r="G13" s="4">
-        <v>11.429615701024003</v>
+        <v>4.48431982928017</v>
       </c>
       <c r="H13" s="4">
-        <v>30.52798854335888</v>
+        <v>9.9449956084157325</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="0"/>
-        <v>256.19980293649866</v>
+        <v>160.88090569465942</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3926,29 +3924,29 @@
         <v>285</v>
       </c>
       <c r="B14" s="10">
-        <v>13.00668800000015</v>
+        <v>10.384319500000116</v>
       </c>
       <c r="C14" s="11">
-        <v>1.1395126716615878E-3</v>
+        <v>7.6769042937906151E-4</v>
       </c>
       <c r="D14" s="12">
-        <v>26.256662160487725</v>
+        <v>9.94</v>
       </c>
       <c r="E14" s="4">
-        <v>16.75416728050013</v>
+        <v>5.4579317209550924</v>
       </c>
       <c r="F14" s="8">
-        <v>3.052088946396498E-2</v>
+        <v>1.7824566110274269E-2</v>
       </c>
       <c r="G14" s="4">
-        <v>9.5024015607621379</v>
+        <v>4.4820641683786819</v>
       </c>
       <c r="H14" s="4">
-        <v>26.256568841262268</v>
+        <v>9.9399958893337743</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="0"/>
-        <v>265.70220449726082</v>
+        <v>165.3629698630381</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3956,29 +3954,29 @@
         <v>309</v>
       </c>
       <c r="B15" s="10">
-        <v>13.074988000000202</v>
+        <v>10.198431750000092</v>
       </c>
       <c r="C15" s="11">
-        <v>1.0614817927221589E-3</v>
+        <v>6.6996841158651482E-4</v>
       </c>
       <c r="D15" s="12">
-        <v>21.985241134288636</v>
+        <v>9.9349999999999987</v>
       </c>
       <c r="E15" s="4">
-        <v>14.409961718665382</v>
+        <v>5.4551876627746223</v>
       </c>
       <c r="F15" s="8">
-        <v>2.4203399493950211E-2</v>
+        <v>1.813738747214106E-2</v>
       </c>
       <c r="G15" s="4">
-        <v>7.5751826843973831</v>
+        <v>4.4798080159673939</v>
       </c>
       <c r="H15" s="4">
-        <v>21.985144403062765</v>
+        <v>9.9349956787420162</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="0"/>
-        <v>273.27738718165818</v>
+        <v>169.8427778790055</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -3986,29 +3984,29 @@
         <v>333</v>
       </c>
       <c r="B16" s="1">
-        <v>13.143288000000254</v>
+        <v>10.012544000000068</v>
       </c>
       <c r="C16" s="2">
-        <v>9.9273438949633243E-4</v>
+        <v>5.7224639379396813E-4</v>
       </c>
       <c r="D16" s="14">
-        <v>17.71382010808955</v>
+        <v>9.93</v>
       </c>
       <c r="E16" s="4">
-        <v>12.065756156830634</v>
+        <v>5.4524436045941513</v>
       </c>
       <c r="F16" s="8">
-        <v>1.7951729376422646E-2</v>
+        <v>1.8461717465950697E-2</v>
       </c>
       <c r="G16" s="4">
-        <v>5.6479607456203809</v>
+        <v>4.4775518880922078</v>
       </c>
       <c r="H16" s="4">
-        <v>17.713716902451015</v>
+        <v>9.9299954926863592</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="0"/>
-        <v>278.92534792727855</v>
+        <v>174.32032976709769</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4016,29 +4014,29 @@
         <v>357</v>
       </c>
       <c r="B17" s="10">
-        <v>13.07794200000008</v>
+        <v>9.8801186666666734</v>
       </c>
       <c r="C17" s="11">
-        <v>9.3020714948338352E-4</v>
+        <v>4.7615211994840421E-4</v>
       </c>
       <c r="D17" s="12">
-        <v>16.760280172494387</v>
+        <v>9.2466666666666661</v>
       </c>
       <c r="E17" s="4">
-        <v>9.7215505949958896</v>
+        <v>5.4496995464136821</v>
       </c>
       <c r="F17" s="8">
-        <v>2.2369344296939681E-2</v>
+        <v>1.590604631770073E-2</v>
       </c>
       <c r="G17" s="4">
-        <v>7.0386206611110129</v>
+        <v>3.7969633651007682</v>
       </c>
       <c r="H17" s="4">
-        <v>16.760171256106901</v>
+        <v>9.2466629115144503</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="0"/>
-        <v>285.96396858838955</v>
+        <v>178.11729313219845</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4046,389 +4044,389 @@
         <v>381</v>
       </c>
       <c r="B18" s="10">
-        <v>13.012595999999908</v>
+        <v>9.7476933333332809</v>
       </c>
       <c r="C18" s="11">
-        <v>8.7518829247222715E-4</v>
+        <v>3.8005784610284029E-4</v>
       </c>
       <c r="D18" s="12">
-        <v>15.806740236899225</v>
+        <v>8.5633333333333326</v>
       </c>
       <c r="E18" s="4">
-        <v>9.1982367828609153</v>
+        <v>5.0746782617494306</v>
       </c>
       <c r="F18" s="8">
-        <v>2.1107293896563472E-2</v>
+        <v>1.4811702369881531E-2</v>
       </c>
       <c r="G18" s="4">
-        <v>6.6084078418254846</v>
+        <v>3.4886557141918622</v>
       </c>
       <c r="H18" s="4">
-        <v>15.806644624686399</v>
+        <v>8.5633339759412923</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="0"/>
-        <v>292.57237643021506</v>
+        <v>181.60594884639031</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>404.58333333337214</v>
+        <v>404.67</v>
       </c>
       <c r="B19" s="1">
-        <v>12.947249999999734</v>
+        <v>9.6152679999998867</v>
       </c>
       <c r="C19" s="2">
-        <v>8.2368304424092448E-4</v>
+        <v>2.8396357225727637E-4</v>
       </c>
       <c r="D19" s="14">
-        <v>14.853200301304064</v>
+        <v>7.88</v>
       </c>
       <c r="E19" s="4">
-        <v>8.7657590348024499</v>
+        <v>4.7389844219761263</v>
       </c>
       <c r="F19" s="8">
-        <v>1.9886020686322319E-2</v>
+        <v>1.3708538717809976E-2</v>
       </c>
       <c r="G19" s="4">
-        <v>6.0873068243114705</v>
+        <v>3.1410152107165787</v>
       </c>
       <c r="H19" s="4">
-        <v>14.85306585911392</v>
+        <v>7.8799996326927051</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="0"/>
-        <v>298.65968325452656</v>
+        <v>184.74696405710688</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
-        <v>428.58333333337214</v>
+        <v>428.67</v>
       </c>
       <c r="B20" s="10">
-        <v>12.883869333333182</v>
+        <v>9.4551786666666207</v>
       </c>
       <c r="C20" s="11">
-        <v>7.7726689103430188E-4</v>
+        <v>2.5965263493511769E-4</v>
       </c>
       <c r="D20" s="12">
-        <v>13.516500355106853</v>
+        <v>9.0666666666666664</v>
       </c>
       <c r="E20" s="4">
-        <v>8.1516091585909685</v>
+        <v>4.3246356924209275</v>
       </c>
       <c r="F20" s="8">
-        <v>1.7307231642539618E-2</v>
+        <v>2.0721529455097386E-2</v>
       </c>
       <c r="G20" s="4">
-        <v>5.3647819906569154</v>
+        <v>4.7420258679023251</v>
       </c>
       <c r="H20" s="4">
-        <v>13.516391149247884</v>
+        <v>9.0666615603232525</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="0"/>
-        <v>304.02446524518348</v>
+        <v>189.48898992500921</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
-        <v>452.58333333337214</v>
+        <v>452.67</v>
       </c>
       <c r="B21" s="10">
-        <v>12.82048866666663</v>
+        <v>9.2950893333333546</v>
       </c>
       <c r="C21" s="11">
-        <v>7.3438980116034727E-4</v>
+        <v>2.3534169761295904E-4</v>
       </c>
       <c r="D21" s="12">
-        <v>12.179800408909642</v>
+        <v>10.253333333333334</v>
       </c>
       <c r="E21" s="4">
-        <v>7.4180126741516803</v>
+        <v>4.975892167252506</v>
       </c>
       <c r="F21" s="8">
-        <v>1.5437275301988228E-2</v>
+        <v>2.3454952508184836E-2</v>
       </c>
       <c r="G21" s="4">
-        <v>4.7616630108823275</v>
+        <v>5.2774397454688478</v>
       </c>
       <c r="H21" s="4">
-        <v>12.179675685034008</v>
+        <v>10.253331912721354</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="0"/>
-        <v>308.78612825606581</v>
+        <v>194.76642967047806</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>476.58333333337214</v>
+        <v>476.67</v>
       </c>
       <c r="B22" s="1">
-        <v>12.757108000000079</v>
+        <v>9.1350000000000886</v>
       </c>
       <c r="C22" s="2">
-        <v>6.9469328982939759E-4</v>
+        <v>2.1103076029080039E-4</v>
       </c>
       <c r="D22" s="14">
-        <v>10.843100462712432</v>
+        <v>11.44</v>
       </c>
       <c r="E22" s="4">
-        <v>6.6844161897123922</v>
+        <v>5.6271486420840846</v>
       </c>
       <c r="F22" s="8">
-        <v>1.3548801841943833E-2</v>
+        <v>2.6283336068049407E-2</v>
       </c>
       <c r="G22" s="4">
-        <v>4.1585494659579645</v>
+        <v>5.812850780546106</v>
       </c>
       <c r="H22" s="4">
-        <v>10.842965655670357</v>
+        <v>11.439999422630191</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="0"/>
-        <v>312.94467772202375</v>
+        <v>200.57928045102418</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <v>500.58333333337214</v>
+        <v>500.67</v>
       </c>
       <c r="B23" s="10">
-        <v>12.80295100000011</v>
+        <v>9.2695700000000496</v>
       </c>
       <c r="C23" s="11">
-        <v>6.5860164405810143E-4</v>
+        <v>3.8761947268619684E-4</v>
       </c>
       <c r="D23" s="12">
-        <v>14.064401793252584</v>
+        <v>14.1275</v>
       </c>
       <c r="E23" s="4">
-        <v>5.950819705273104</v>
+        <v>6.2784051169156614</v>
       </c>
       <c r="F23" s="8">
-        <v>2.645227209426429E-2</v>
+        <v>3.5539610018153464E-2</v>
       </c>
       <c r="G23" s="4">
-        <v>8.113459624961445</v>
+        <v>7.8490948842217403</v>
       </c>
       <c r="H23" s="4">
-        <v>14.064279330234548</v>
+        <v>14.127500001137403</v>
       </c>
       <c r="I23" s="9">
         <f t="shared" si="0"/>
-        <v>321.05813734698518</v>
+        <v>208.4283753352459</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
-        <v>524.58333333337214</v>
+        <v>524.66999999999996</v>
       </c>
       <c r="B24" s="10">
-        <v>12.84879400000014</v>
+        <v>9.4041400000000124</v>
       </c>
       <c r="C24" s="11">
-        <v>6.2501709072703348E-4</v>
+        <v>5.6420818508159335E-4</v>
       </c>
       <c r="D24" s="12">
-        <v>17.285703123792736</v>
+        <v>16.815000000000001</v>
       </c>
       <c r="E24" s="4">
-        <v>7.7187073588387092</v>
+        <v>7.753336388918358</v>
       </c>
       <c r="F24" s="8">
-        <v>3.1079381894690554E-2</v>
+        <v>4.0438597069719188E-2</v>
       </c>
       <c r="G24" s="4">
-        <v>9.5668845494427206</v>
+        <v>9.0616636138414624</v>
       </c>
       <c r="H24" s="4">
-        <v>17.285591908281429</v>
+        <v>16.81500000275982</v>
       </c>
       <c r="I24" s="9">
         <f t="shared" si="0"/>
-        <v>330.62502189642788</v>
+        <v>217.49003894908736</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>548.58333333337214</v>
+        <v>548.66999999999996</v>
       </c>
       <c r="B25" s="10">
-        <v>12.89463700000017</v>
+        <v>9.5387099999999734</v>
       </c>
       <c r="C25" s="11">
-        <v>5.9393509538525793E-4</v>
+        <v>7.4079689747698981E-4</v>
       </c>
       <c r="D25" s="12">
-        <v>20.507004454332886</v>
+        <v>19.502500000000001</v>
       </c>
       <c r="E25" s="4">
-        <v>9.4865950124043135</v>
+        <v>9.2282676609210537</v>
       </c>
       <c r="F25" s="8">
-        <v>3.5673548649791074E-2</v>
+        <v>4.5198373483049177E-2</v>
       </c>
       <c r="G25" s="4">
-        <v>11.02031445829261</v>
+        <v>10.274232109600529</v>
       </c>
       <c r="H25" s="4">
-        <v>20.506909470696925</v>
+        <v>19.502499770521581</v>
       </c>
       <c r="I25" s="9">
         <f t="shared" si="0"/>
-        <v>341.64533635472048</v>
+        <v>227.76427105868788</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>572.58333333337214</v>
+        <v>572.66999999999996</v>
       </c>
       <c r="B26" s="1">
-        <v>12.940480000000202</v>
+        <v>9.6732799999999344</v>
       </c>
       <c r="C26" s="2">
-        <v>5.6493004330067397E-4</v>
+        <v>9.1738560987238615E-4</v>
       </c>
       <c r="D26" s="14">
-        <v>23.72830578487304</v>
+        <v>22.19</v>
       </c>
       <c r="E26" s="4">
-        <v>11.254482665969919</v>
+        <v>10.703198932923751</v>
       </c>
       <c r="F26" s="8">
-        <v>4.0235120617184032E-2</v>
+        <v>4.9824792863695712E-2</v>
       </c>
       <c r="G26" s="4">
-        <v>12.473748583848922</v>
+        <v>11.486801066992665</v>
       </c>
       <c r="H26" s="4">
-        <v>23.72823124981884</v>
+        <v>22.189999999916417</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="0"/>
-        <v>354.11908493856942</v>
+        <v>239.25107212568054</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>596.58333333337214</v>
+        <v>596.66999999999996</v>
       </c>
       <c r="B27" s="10">
-        <v>13.235994250000136</v>
+        <v>9.8452819999999903</v>
       </c>
       <c r="C27" s="11">
-        <v>5.3837512309013434E-4</v>
+        <v>8.8481109603465169E-4</v>
       </c>
       <c r="D27" s="12">
-        <v>29.323517836782063</v>
+        <v>22.387500000000003</v>
       </c>
       <c r="E27" s="4">
-        <v>13.022370319535524</v>
+        <v>12.178130204926447</v>
       </c>
       <c r="F27" s="8">
-        <v>5.1894888599652446E-2</v>
+        <v>4.3588294652612034E-2</v>
       </c>
       <c r="G27" s="4">
-        <v>16.301102581625258</v>
+        <v>10.209369979815278</v>
       </c>
       <c r="H27" s="4">
-        <v>29.323472901160784</v>
+        <v>22.387500184741725</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="0"/>
-        <v>370.42018752019465</v>
+        <v>249.46044210549582</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>620.58333333337214</v>
+        <v>620.66999999999996</v>
       </c>
       <c r="B28" s="10">
-        <v>13.531508500000069</v>
+        <v>10.017284000000048</v>
       </c>
       <c r="C28" s="11">
-        <v>5.1351133351925119E-4</v>
+        <v>8.5223658219691733E-4</v>
       </c>
       <c r="D28" s="12">
-        <v>34.918729888691082</v>
+        <v>22.585000000000001</v>
       </c>
       <c r="E28" s="4">
-        <v>16.093087800036731</v>
+        <v>12.286520503055018</v>
       </c>
       <c r="F28" s="8">
-        <v>5.8608100387898668E-2</v>
+        <v>4.3207195291492945E-2</v>
       </c>
       <c r="G28" s="4">
-        <v>18.825509859664386</v>
+        <v>10.298469217826034</v>
       </c>
       <c r="H28" s="4">
-        <v>34.918597659701121</v>
+        <v>22.584989720881051</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="0"/>
-        <v>389.24569737985905</v>
+        <v>259.75891132332185</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>644.58333333337214</v>
+        <v>644.66999999999996</v>
       </c>
       <c r="B29" s="10">
-        <v>13.827022750000001</v>
+        <v>10.189286000000106</v>
       </c>
       <c r="C29" s="11">
-        <v>4.9037037051439202E-4</v>
+        <v>8.1966206835918287E-4</v>
       </c>
       <c r="D29" s="12">
-        <v>40.513941940600105</v>
+        <v>22.782499999999999</v>
       </c>
       <c r="E29" s="4">
-        <v>19.163805280537932</v>
+        <v>12.394910801183586</v>
       </c>
       <c r="F29" s="8">
-        <v>6.5031598079462072E-2</v>
+        <v>4.2839158281365322E-2</v>
       </c>
       <c r="G29" s="4">
-        <v>21.350028099532892</v>
+        <v>10.387589406641936</v>
       </c>
       <c r="H29" s="4">
-        <v>40.513833380070821</v>
+        <v>22.782500207825521</v>
       </c>
       <c r="I29" s="9">
         <f t="shared" si="0"/>
-        <v>410.59572547939194</v>
+        <v>270.1465007299638</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>668.75000000005821</v>
+        <v>668.67</v>
       </c>
       <c r="B30" s="1">
-        <v>14.122536999999936</v>
+        <v>10.361288000000162</v>
       </c>
       <c r="C30" s="2">
-        <v>4.6815869290773671E-4</v>
+        <v>7.8708755452144841E-4</v>
       </c>
       <c r="D30" s="14">
-        <v>46.109153992509128</v>
+        <v>22.98</v>
       </c>
       <c r="E30" s="4">
-        <v>22.14207165641314</v>
+        <v>12.503301099312155</v>
       </c>
       <c r="F30" s="8">
-        <v>7.0966165559716438E-2</v>
+        <v>4.2483398902612622E-2</v>
       </c>
       <c r="G30" s="4">
-        <v>23.96696643820707</v>
+        <v>10.47669879503605</v>
       </c>
       <c r="H30" s="4">
-        <v>46.10903809462021</v>
+        <v>22.979999894348204</v>
       </c>
       <c r="I30" s="9">
         <f t="shared" si="0"/>
-        <v>434.56269191759901</v>
+        <v>280.62319952499985</v>
       </c>
     </row>
   </sheetData>
@@ -4437,1826 +4435,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA11CD-2C95-4E19-A163-CF8B046EC0B9}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.5021399999999838</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.5064271954511927E-2</v>
-      </c>
-      <c r="D2" s="16">
-        <v>60.279194610749968</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
-        <v>0.33558577186022476</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6">
-        <v>60.279194610749968</v>
-      </c>
-      <c r="I2" s="15">
-        <f>H2</f>
-        <v>60.279194610749968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>22.000000000116415</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.4484799999999884</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.2231004207703299E-2</v>
-      </c>
-      <c r="D3" s="16">
-        <v>53.734020480054383</v>
-      </c>
-      <c r="E3" s="4">
-        <v>34.224479291241188</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.16196268796506377</v>
-      </c>
-      <c r="G3" s="4">
-        <v>19.509510351027043</v>
-      </c>
-      <c r="H3" s="4">
-        <v>53.733989642268227</v>
-      </c>
-      <c r="I3" s="9">
-        <f>I2+G3</f>
-        <v>79.788704961777015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44.666666666802485</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.6620359999998957</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.0973467011519803E-3</v>
-      </c>
-      <c r="D4" s="14">
-        <v>47.920083066431779</v>
-      </c>
-      <c r="E4" s="4">
-        <v>28.962752317489247</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.1185430242948817</v>
-      </c>
-      <c r="G4" s="4">
-        <v>18.957303398030998</v>
-      </c>
-      <c r="H4" s="4">
-        <v>47.920055715520249</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I30" si="0">I3+G4</f>
-        <v>98.746008359808016</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>68.666666666802485</v>
-      </c>
-      <c r="B5" s="10">
-        <v>8.5021469999998889</v>
-      </c>
-      <c r="C5" s="11">
-        <v>4.6230184971063903E-3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>41.425377019482852</v>
-      </c>
-      <c r="E5" s="4">
-        <v>23.008111266182684</v>
-      </c>
-      <c r="F5" s="8">
-        <v>9.4948878517351551E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>18.417252575990624</v>
-      </c>
-      <c r="H5" s="4">
-        <v>41.425363842173311</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
-        <v>117.16326093579863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>92.666666666802485</v>
-      </c>
-      <c r="B6" s="10">
-        <v>9.3422579999998803</v>
-      </c>
-      <c r="C6" s="11">
-        <v>3.3103539889279762E-3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>34.930670972533932</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18.853355265577385</v>
-      </c>
-      <c r="F6" s="8">
-        <v>7.5082774787858367E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>16.077689302059795</v>
-      </c>
-      <c r="H6" s="4">
-        <v>34.93104456763718</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="0"/>
-        <v>133.24095023785844</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>116.66666666680248</v>
-      </c>
-      <c r="B7" s="10">
-        <v>10.182368999999873</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2.5925362840346061E-3</v>
-      </c>
-      <c r="D7" s="12">
-        <v>28.435964925585004</v>
-      </c>
-      <c r="E7" s="4">
-        <v>14.832554799058425</v>
-      </c>
-      <c r="F7" s="8">
-        <v>5.806138443056777E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>13.603522489325144</v>
-      </c>
-      <c r="H7" s="4">
-        <v>28.436077288383569</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="0"/>
-        <v>146.84447272718359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>141.16666666668607</v>
-      </c>
-      <c r="B8" s="1">
-        <v>11.022479999999867</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.1278153172507876E-3</v>
-      </c>
-      <c r="D8" s="14">
-        <v>21.941258878636081</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10.923876660845799</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4.2416164654377857E-2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>11.017997491473952</v>
-      </c>
-      <c r="H8" s="4">
-        <v>21.941874152319752</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="0"/>
-        <v>157.86247021865753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>165.16666666668607</v>
-      </c>
-      <c r="B9" s="10">
-        <v>11.473906666666579</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1.8316635161709722E-3</v>
-      </c>
-      <c r="D9" s="12">
-        <v>23.70630487829505</v>
-      </c>
-      <c r="E9" s="4">
-        <v>9.8552380735432905</v>
-      </c>
-      <c r="F9" s="8">
-        <v>5.1305038081921106E-2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>13.85013569566733</v>
-      </c>
-      <c r="H9" s="4">
-        <v>23.70537376921062</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" si="0"/>
-        <v>171.71260591432485</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>188.66666666680248</v>
-      </c>
-      <c r="B10" s="1">
-        <v>12.376760000000006</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.6199231438351303E-3</v>
-      </c>
-      <c r="D10" s="14">
-        <v>27.236396877612993</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10.981076676379962</v>
-      </c>
-      <c r="F10" s="8">
-        <v>5.800619606207514E-2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>16.25596575089541</v>
-      </c>
-      <c r="H10" s="4">
-        <v>27.23704242727537</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="0"/>
-        <v>187.96857166522025</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>212.66666666680248</v>
-      </c>
-      <c r="B11" s="10">
-        <v>12.912286666666539</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1.4603545378556659E-3</v>
-      </c>
-      <c r="D11" s="12">
-        <v>31.143659505770124</v>
-      </c>
-      <c r="E11" s="4">
-        <v>15.226764761819094</v>
-      </c>
-      <c r="F11" s="8">
-        <v>5.244964346117096E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>15.916817773674889</v>
-      </c>
-      <c r="H11" s="4">
-        <v>31.143582535493984</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="0"/>
-        <v>203.88538943889515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>237</v>
-      </c>
-      <c r="B12" s="1">
-        <v>13.180049999999806</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.3336949380821353E-3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>35.050922133927251</v>
-      </c>
-      <c r="E12" s="4">
-        <v>19.725609852553575</v>
-      </c>
-      <c r="F12" s="8">
-        <v>4.8273815472311916E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>15.324849186686215</v>
-      </c>
-      <c r="H12" s="4">
-        <v>35.05045903923979</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="0"/>
-        <v>219.21023862558135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>261</v>
-      </c>
-      <c r="B13" s="10">
-        <v>13.461574499999845</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1.2289197431222881E-3</v>
-      </c>
-      <c r="D13" s="12">
-        <v>32.699129262110986</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20.445621929683515</v>
-      </c>
-      <c r="F13" s="8">
-        <v>3.8328295853359902E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>12.253536790201299</v>
-      </c>
-      <c r="H13" s="4">
-        <v>32.699158719884814</v>
-      </c>
-      <c r="I13" s="9">
-        <f t="shared" si="0"/>
-        <v>231.46377541578266</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>285</v>
-      </c>
-      <c r="B14" s="10">
-        <v>13.743098999999884</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1.1395126716615878E-3</v>
-      </c>
-      <c r="D14" s="12">
-        <v>30.347336390294714</v>
-      </c>
-      <c r="E14" s="4">
-        <v>19.809012895680336</v>
-      </c>
-      <c r="F14" s="8">
-        <v>3.2280479766594906E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>10.538158949682742</v>
-      </c>
-      <c r="H14" s="4">
-        <v>30.347171845363079</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="0"/>
-        <v>242.00193436546542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>309</v>
-      </c>
-      <c r="B15" s="10">
-        <v>14.024623499999921</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1.0614817927221589E-3</v>
-      </c>
-      <c r="D15" s="12">
-        <v>27.995543518478446</v>
-      </c>
-      <c r="E15" s="4">
-        <v>19.309397544380001</v>
-      </c>
-      <c r="F15" s="8">
-        <v>2.6071363293959447E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>8.687308573720161</v>
-      </c>
-      <c r="H15" s="4">
-        <v>27.996706118100164</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="0"/>
-        <v>250.68924293918559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>333</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14.306147999999959</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.9273438949633243E-4</v>
-      </c>
-      <c r="D16" s="14">
-        <v>25.643750646662177</v>
-      </c>
-      <c r="E16" s="4">
-        <v>18.971548050973567</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1.9625955465716962E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6.6722215172208124</v>
-      </c>
-      <c r="H16" s="4">
-        <v>25.643769568194379</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="0"/>
-        <v>257.3614644564064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>357</v>
-      </c>
-      <c r="B17" s="10">
-        <v>14.30849166666661</v>
-      </c>
-      <c r="C17" s="11">
-        <v>9.3020714948338352E-4</v>
-      </c>
-      <c r="D17" s="12">
-        <v>24.840983503262549</v>
-      </c>
-      <c r="E17" s="4">
-        <v>16.451203235692731</v>
-      </c>
-      <c r="F17" s="8">
-        <v>2.4431942031264801E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>8.3893346109783344</v>
-      </c>
-      <c r="H17" s="4">
-        <v>24.840537846671065</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="0"/>
-        <v>265.75079906738472</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>381</v>
-      </c>
-      <c r="B18" s="10">
-        <v>14.310835333333261</v>
-      </c>
-      <c r="C18" s="11">
-        <v>8.7518829247222715E-4</v>
-      </c>
-      <c r="D18" s="12">
-        <v>24.038216359862918</v>
-      </c>
-      <c r="E18" s="4">
-        <v>16.093054812136906</v>
-      </c>
-      <c r="F18" s="8">
-        <v>2.3132498167440816E-2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>7.9444383525706375</v>
-      </c>
-      <c r="H18" s="4">
-        <v>24.037493164707541</v>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="0"/>
-        <v>273.69523741995533</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>404.58333333337214</v>
-      </c>
-      <c r="B19" s="1">
-        <v>14.313178999999911</v>
-      </c>
-      <c r="C19" s="2">
-        <v>8.2368304424092448E-4</v>
-      </c>
-      <c r="D19" s="14">
-        <v>23.235449216463291</v>
-      </c>
-      <c r="E19" s="4">
-        <v>15.877232959573448</v>
-      </c>
-      <c r="F19" s="8">
-        <v>2.1798849690355528E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>7.3576531597744443</v>
-      </c>
-      <c r="H19" s="4">
-        <v>23.234886119347891</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="0"/>
-        <v>281.05289057972976</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>428.58333333337214</v>
-      </c>
-      <c r="B20" s="10">
-        <v>14.203732666666642</v>
-      </c>
-      <c r="C20" s="11">
-        <v>7.7726689103430188E-4</v>
-      </c>
-      <c r="D20" s="12">
-        <v>22.500738747272589</v>
-      </c>
-      <c r="E20" s="4">
-        <v>15.899663365562331</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1.9291493367521825E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>6.6016057473564427</v>
-      </c>
-      <c r="H20" s="4">
-        <v>22.501269112918774</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="0"/>
-        <v>287.65449632708618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>452.58333333337214</v>
-      </c>
-      <c r="B21" s="10">
-        <v>14.094286333333375</v>
-      </c>
-      <c r="C21" s="11">
-        <v>7.3438980116034727E-4</v>
-      </c>
-      <c r="D21" s="12">
-        <v>21.766028278081887</v>
-      </c>
-      <c r="E21" s="4">
-        <v>15.887372049040394</v>
-      </c>
-      <c r="F21" s="8">
-        <v>1.7315237271499372E-2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5.8798429595807722</v>
-      </c>
-      <c r="H21" s="4">
-        <v>21.767215008621164</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="0"/>
-        <v>293.53433928666698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>476.58333333337214</v>
-      </c>
-      <c r="B22" s="1">
-        <v>13.984840000000107</v>
-      </c>
-      <c r="C22" s="2">
-        <v>6.9469328982939759E-4</v>
-      </c>
-      <c r="D22" s="14">
-        <v>21.031317808891185</v>
-      </c>
-      <c r="E22" s="4">
-        <v>15.889219209193277</v>
-      </c>
-      <c r="F22" s="8">
-        <v>1.5258331905811367E-2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5.1412875506305253</v>
-      </c>
-      <c r="H22" s="4">
-        <v>21.030506759823801</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="0"/>
-        <v>298.6756268372975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>500.58333333337214</v>
-      </c>
-      <c r="B23" s="10">
-        <v>13.930356000000039</v>
-      </c>
-      <c r="C23" s="11">
-        <v>6.5860164405810143E-4</v>
-      </c>
-      <c r="D23" s="12">
-        <v>22.209139349325611</v>
-      </c>
-      <c r="E23" s="4">
-        <v>12.678365249664784</v>
-      </c>
-      <c r="F23" s="8">
-        <v>2.8451219803133487E-2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>9.5306565269226819</v>
-      </c>
-      <c r="H23" s="4">
-        <v>22.209021776587466</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="0"/>
-        <v>308.20628336422016</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>524.58333333337214</v>
-      </c>
-      <c r="B24" s="10">
-        <v>13.875871999999969</v>
-      </c>
-      <c r="C24" s="11">
-        <v>6.2501709072703348E-4</v>
-      </c>
-      <c r="D24" s="12">
-        <v>23.38696088976004</v>
-      </c>
-      <c r="E24" s="4">
-        <v>12.668813467323769</v>
-      </c>
-      <c r="F24" s="8">
-        <v>3.2121142943870772E-2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>10.718013891814346</v>
-      </c>
-      <c r="H24" s="4">
-        <v>23.386827359138117</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="0"/>
-        <v>318.92429725603449</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>548.58333333337214</v>
-      </c>
-      <c r="B25" s="10">
-        <v>13.821387999999901</v>
-      </c>
-      <c r="C25" s="11">
-        <v>5.9393509538525793E-4</v>
-      </c>
-      <c r="D25" s="12">
-        <v>24.564782430194466</v>
-      </c>
-      <c r="E25" s="4">
-        <v>12.766500768840233</v>
-      </c>
-      <c r="F25" s="8">
-        <v>3.5497592138818139E-2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>11.798232466113571</v>
-      </c>
-      <c r="H25" s="4">
-        <v>24.564733234953806</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="0"/>
-        <v>330.72252972214807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>572.58333333337214</v>
-      </c>
-      <c r="B26" s="1">
-        <v>13.766903999999833</v>
-      </c>
-      <c r="C26" s="2">
-        <v>5.6493004330067397E-4</v>
-      </c>
-      <c r="D26" s="14">
-        <v>25.742603970628892</v>
-      </c>
-      <c r="E26" s="4">
-        <v>12.94537547521654</v>
-      </c>
-      <c r="F26" s="8">
-        <v>3.8654384379879371E-2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>12.796901320228088</v>
-      </c>
-      <c r="H26" s="4">
-        <v>25.742276795444628</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="0"/>
-        <v>343.51943104237614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>596.58333333337214</v>
-      </c>
-      <c r="B27" s="10">
-        <v>14.104468999999902</v>
-      </c>
-      <c r="C27" s="11">
-        <v>5.3837512309013434E-4</v>
-      </c>
-      <c r="D27" s="12">
-        <v>27.591934000089346</v>
-      </c>
-      <c r="E27" s="4">
-        <v>12.576627591798486</v>
-      </c>
-      <c r="F27" s="8">
-        <v>4.4894649774473161E-2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>15.015306354824347</v>
-      </c>
-      <c r="H27" s="4">
-        <v>27.591933946622831</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="0"/>
-        <v>358.5347373972005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>620.58333333337214</v>
-      </c>
-      <c r="B28" s="10">
-        <v>14.442033999999971</v>
-      </c>
-      <c r="C28" s="11">
-        <v>5.1351133351925119E-4</v>
-      </c>
-      <c r="D28" s="12">
-        <v>29.441264029549803</v>
-      </c>
-      <c r="E28" s="4">
-        <v>13.047456397585949</v>
-      </c>
-      <c r="F28" s="8">
-        <v>4.7855989598522622E-2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>16.393453807706265</v>
-      </c>
-      <c r="H28" s="4">
-        <v>29.440910205292212</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="0"/>
-        <v>374.92819120490674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>644.58333333337214</v>
-      </c>
-      <c r="B29" s="10">
-        <v>14.77959900000004</v>
-      </c>
-      <c r="C29" s="11">
-        <v>4.9037037051439202E-4</v>
-      </c>
-      <c r="D29" s="12">
-        <v>31.29059405901026</v>
-      </c>
-      <c r="E29" s="4">
-        <v>13.593515449988034</v>
-      </c>
-      <c r="F29" s="8">
-        <v>5.046587420126581E-2</v>
-      </c>
-      <c r="G29" s="4">
-        <v>17.696343059202697</v>
-      </c>
-      <c r="H29" s="4">
-        <v>31.289858509190729</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="0"/>
-        <v>392.62453426410946</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>669.25000000011642</v>
-      </c>
-      <c r="B30" s="1">
-        <v>15.117164000000109</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4.6815869290773671E-4</v>
-      </c>
-      <c r="D30" s="14">
-        <v>33.139924088470714</v>
-      </c>
-      <c r="E30" s="4">
-        <v>13.97283634769696</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5.198161433625851E-2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>19.167011384805519</v>
-      </c>
-      <c r="H30" s="4">
-        <v>33.139847732502481</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="0"/>
-        <v>411.79154564891496</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D51DB7-9C79-4134-B08C-CB690592D46F}">
-  <dimension ref="A1:I30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>4.5496259999999014</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.4964608320098901E-2</v>
-      </c>
-      <c r="D2" s="16">
-        <v>45.27</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
-        <v>0.24840455427564856</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6">
-        <v>45.27</v>
-      </c>
-      <c r="I2" s="15">
-        <f>H2</f>
-        <v>45.27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6.6794000000000269</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.7434720188775437E-2</v>
-      </c>
-      <c r="D3" s="16">
-        <v>47.99</v>
-      </c>
-      <c r="E3" s="4">
-        <v>26.118517915848621</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.17706936941915641</v>
-      </c>
-      <c r="G3" s="4">
-        <v>21.871482083240029</v>
-      </c>
-      <c r="H3" s="4">
-        <v>47.989999999088653</v>
-      </c>
-      <c r="I3" s="9">
-        <f>I2+G3</f>
-        <v>67.141482083240035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44.67</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.82034000000007</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6.9804708182983873E-3</v>
-      </c>
-      <c r="D4" s="14">
-        <v>54.76</v>
-      </c>
-      <c r="E4" s="4">
-        <v>27.230181965555008</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.16752725159760062</v>
-      </c>
-      <c r="G4" s="4">
-        <v>27.52981803226141</v>
-      </c>
-      <c r="H4" s="4">
-        <v>54.759999997816422</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" ref="I4:I30" si="0">I3+G4</f>
-        <v>94.671300115501452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>68.67</v>
-      </c>
-      <c r="B5" s="10">
-        <v>8.4119647499999868</v>
-      </c>
-      <c r="C5" s="11">
-        <v>5.9464557691645478E-3</v>
-      </c>
-      <c r="D5" s="12">
-        <v>46.8125</v>
-      </c>
-      <c r="E5" s="4">
-        <v>30.052925192508884</v>
-      </c>
-      <c r="F5" s="8">
-        <v>8.6040229988494185E-2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>16.759574807199979</v>
-      </c>
-      <c r="H5" s="4">
-        <v>46.812499999708862</v>
-      </c>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
-        <v>111.43087492270143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>92.67</v>
-      </c>
-      <c r="B6" s="10">
-        <v>9.0035894999999044</v>
-      </c>
-      <c r="C6" s="11">
-        <v>4.9124407200307075E-3</v>
-      </c>
-      <c r="D6" s="12">
-        <v>38.864999999999995</v>
-      </c>
-      <c r="E6" s="4">
-        <v>25.69124471465161</v>
-      </c>
-      <c r="F6" s="8">
-        <v>6.3036348121644381E-2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>13.173755285212518</v>
-      </c>
-      <c r="H6" s="4">
-        <v>38.864999999864125</v>
-      </c>
-      <c r="I6" s="9">
-        <f t="shared" si="0"/>
-        <v>124.60463020791396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>116.67</v>
-      </c>
-      <c r="B7" s="10">
-        <v>9.5952142499998203</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3.878425670896868E-3</v>
-      </c>
-      <c r="D7" s="12">
-        <v>30.917499999999997</v>
-      </c>
-      <c r="E7" s="4">
-        <v>21.329564236794333</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4.2959464374961447E-2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>9.5879357653801502</v>
-      </c>
-      <c r="H7" s="4">
-        <v>30.917500002174485</v>
-      </c>
-      <c r="I7" s="9">
-        <f t="shared" si="0"/>
-        <v>134.19256597329411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>141.16999999999999</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.186838999999738</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.8444106217630286E-3</v>
-      </c>
-      <c r="D8" s="14">
-        <v>22.97</v>
-      </c>
-      <c r="E8" s="4">
-        <v>16.757105321735683</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2.5638138306665618E-2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>6.2128939608335596</v>
-      </c>
-      <c r="H8" s="4">
-        <v>22.969999282569241</v>
-      </c>
-      <c r="I8" s="9">
-        <f t="shared" si="0"/>
-        <v>140.40545993412766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>165.17</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10.249778999999815</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1.614184291496676E-3</v>
-      </c>
-      <c r="D9" s="12">
-        <v>19.156666666666666</v>
-      </c>
-      <c r="E9" s="4">
-        <v>12.606203281079786</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2.6710484511410646E-2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6.5504636226552506</v>
-      </c>
-      <c r="H9" s="4">
-        <v>19.156666903735037</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" si="0"/>
-        <v>146.95592355678292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>189</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.375658999999969</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3.839579612303234E-4</v>
-      </c>
-      <c r="D10" s="14">
-        <v>11.53</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10.557298804395632</v>
-      </c>
-      <c r="F10" s="8">
-        <v>3.957505053625401E-3</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.97270119515819342</v>
-      </c>
-      <c r="H10" s="4">
-        <v>11.529999999553826</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="0"/>
-        <v>147.9286247519411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>213</v>
-      </c>
-      <c r="B11" s="10">
-        <v>10.629283000000099</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6.735462130972392E-4</v>
-      </c>
-      <c r="D11" s="12">
-        <v>10.739999999999998</v>
-      </c>
-      <c r="E11" s="4">
-        <v>6.3277981641641237</v>
-      </c>
-      <c r="F11" s="8">
-        <v>1.7504598654772757E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>4.4121969537213719</v>
-      </c>
-      <c r="H11" s="4">
-        <v>10.739995117885496</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="0"/>
-        <v>152.34082170566248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>237</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10.756095000000164</v>
-      </c>
-      <c r="C12" s="2">
-        <v>9.6313446496415489E-4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5.8942369716498426</v>
-      </c>
-      <c r="F12" s="8">
-        <v>1.5804272743884202E-2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>4.0557641597167802</v>
-      </c>
-      <c r="H12" s="4">
-        <v>9.9500011313666228</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="0"/>
-        <v>156.39658586537925</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>261</v>
-      </c>
-      <c r="B13" s="10">
-        <v>10.57020725000014</v>
-      </c>
-      <c r="C13" s="11">
-        <v>8.654124471716082E-4</v>
-      </c>
-      <c r="D13" s="12">
-        <v>9.9450000000000003</v>
-      </c>
-      <c r="E13" s="4">
-        <v>5.4606757791355625</v>
-      </c>
-      <c r="F13" s="8">
-        <v>1.7522649483535081E-2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>4.48431982928017</v>
-      </c>
-      <c r="H13" s="4">
-        <v>9.9449956084157325</v>
-      </c>
-      <c r="I13" s="9">
-        <f t="shared" si="0"/>
-        <v>160.88090569465942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>285</v>
-      </c>
-      <c r="B14" s="10">
-        <v>10.384319500000116</v>
-      </c>
-      <c r="C14" s="11">
-        <v>7.6769042937906151E-4</v>
-      </c>
-      <c r="D14" s="12">
-        <v>9.94</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5.4579317209550924</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1.7824566110274269E-2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>4.4820641683786819</v>
-      </c>
-      <c r="H14" s="4">
-        <v>9.9399958893337743</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="0"/>
-        <v>165.3629698630381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>309</v>
-      </c>
-      <c r="B15" s="10">
-        <v>10.198431750000092</v>
-      </c>
-      <c r="C15" s="11">
-        <v>6.6996841158651482E-4</v>
-      </c>
-      <c r="D15" s="12">
-        <v>9.9349999999999987</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5.4551876627746223</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.813738747214106E-2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>4.4798080159673939</v>
-      </c>
-      <c r="H15" s="4">
-        <v>9.9349956787420162</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="0"/>
-        <v>169.8427778790055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>333</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10.012544000000068</v>
-      </c>
-      <c r="C16" s="2">
-        <v>5.7224639379396813E-4</v>
-      </c>
-      <c r="D16" s="14">
-        <v>9.93</v>
-      </c>
-      <c r="E16" s="4">
-        <v>5.4524436045941513</v>
-      </c>
-      <c r="F16" s="8">
-        <v>1.8461717465950697E-2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>4.4775518880922078</v>
-      </c>
-      <c r="H16" s="4">
-        <v>9.9299954926863592</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="0"/>
-        <v>174.32032976709769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>357</v>
-      </c>
-      <c r="B17" s="10">
-        <v>9.8801186666666734</v>
-      </c>
-      <c r="C17" s="11">
-        <v>4.7615211994840421E-4</v>
-      </c>
-      <c r="D17" s="12">
-        <v>9.2466666666666661</v>
-      </c>
-      <c r="E17" s="4">
-        <v>5.4496995464136821</v>
-      </c>
-      <c r="F17" s="8">
-        <v>1.590604631770073E-2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>3.7969633651007682</v>
-      </c>
-      <c r="H17" s="4">
-        <v>9.2466629115144503</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="0"/>
-        <v>178.11729313219845</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>381</v>
-      </c>
-      <c r="B18" s="10">
-        <v>9.7476933333332809</v>
-      </c>
-      <c r="C18" s="11">
-        <v>3.8005784610284029E-4</v>
-      </c>
-      <c r="D18" s="12">
-        <v>8.5633333333333326</v>
-      </c>
-      <c r="E18" s="4">
-        <v>5.0746782617494306</v>
-      </c>
-      <c r="F18" s="8">
-        <v>1.4811702369881531E-2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3.4886557141918622</v>
-      </c>
-      <c r="H18" s="4">
-        <v>8.5633339759412923</v>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="0"/>
-        <v>181.60594884639031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>404.67</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9.6152679999998867</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.8396357225727637E-4</v>
-      </c>
-      <c r="D19" s="14">
-        <v>7.88</v>
-      </c>
-      <c r="E19" s="4">
-        <v>4.7389844219761263</v>
-      </c>
-      <c r="F19" s="8">
-        <v>1.3708538717809976E-2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3.1410152107165787</v>
-      </c>
-      <c r="H19" s="4">
-        <v>7.8799996326927051</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="0"/>
-        <v>184.74696405710688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>428.67</v>
-      </c>
-      <c r="B20" s="10">
-        <v>9.4551786666666207</v>
-      </c>
-      <c r="C20" s="11">
-        <v>2.5965263493511769E-4</v>
-      </c>
-      <c r="D20" s="12">
-        <v>9.0666666666666664</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4.3246356924209275</v>
-      </c>
-      <c r="F20" s="8">
-        <v>2.0721529455097386E-2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4.7420258679023251</v>
-      </c>
-      <c r="H20" s="4">
-        <v>9.0666615603232525</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="0"/>
-        <v>189.48898992500921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>452.67</v>
-      </c>
-      <c r="B21" s="10">
-        <v>9.2950893333333546</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2.3534169761295904E-4</v>
-      </c>
-      <c r="D21" s="12">
-        <v>10.253333333333334</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4.975892167252506</v>
-      </c>
-      <c r="F21" s="8">
-        <v>2.3454952508184836E-2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>5.2774397454688478</v>
-      </c>
-      <c r="H21" s="4">
-        <v>10.253331912721354</v>
-      </c>
-      <c r="I21" s="9">
-        <f t="shared" si="0"/>
-        <v>194.76642967047806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>476.67</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9.1350000000000886</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2.1103076029080039E-4</v>
-      </c>
-      <c r="D22" s="14">
-        <v>11.44</v>
-      </c>
-      <c r="E22" s="4">
-        <v>5.6271486420840846</v>
-      </c>
-      <c r="F22" s="8">
-        <v>2.6283336068049407E-2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>5.812850780546106</v>
-      </c>
-      <c r="H22" s="4">
-        <v>11.439999422630191</v>
-      </c>
-      <c r="I22" s="9">
-        <f t="shared" si="0"/>
-        <v>200.57928045102418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>500.67</v>
-      </c>
-      <c r="B23" s="10">
-        <v>9.2695700000000496</v>
-      </c>
-      <c r="C23" s="11">
-        <v>3.8761947268619684E-4</v>
-      </c>
-      <c r="D23" s="12">
-        <v>14.1275</v>
-      </c>
-      <c r="E23" s="4">
-        <v>6.2784051169156614</v>
-      </c>
-      <c r="F23" s="8">
-        <v>3.5539610018153464E-2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>7.8490948842217403</v>
-      </c>
-      <c r="H23" s="4">
-        <v>14.127500001137403</v>
-      </c>
-      <c r="I23" s="9">
-        <f t="shared" si="0"/>
-        <v>208.4283753352459</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>524.66999999999996</v>
-      </c>
-      <c r="B24" s="10">
-        <v>9.4041400000000124</v>
-      </c>
-      <c r="C24" s="11">
-        <v>5.6420818508159335E-4</v>
-      </c>
-      <c r="D24" s="12">
-        <v>16.815000000000001</v>
-      </c>
-      <c r="E24" s="4">
-        <v>7.753336388918358</v>
-      </c>
-      <c r="F24" s="8">
-        <v>4.0438597069719188E-2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>9.0616636138414624</v>
-      </c>
-      <c r="H24" s="4">
-        <v>16.81500000275982</v>
-      </c>
-      <c r="I24" s="9">
-        <f t="shared" si="0"/>
-        <v>217.49003894908736</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>548.66999999999996</v>
-      </c>
-      <c r="B25" s="10">
-        <v>9.5387099999999734</v>
-      </c>
-      <c r="C25" s="11">
-        <v>7.4079689747698981E-4</v>
-      </c>
-      <c r="D25" s="12">
-        <v>19.502500000000001</v>
-      </c>
-      <c r="E25" s="4">
-        <v>9.2282676609210537</v>
-      </c>
-      <c r="F25" s="8">
-        <v>4.5198373483049177E-2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>10.274232109600529</v>
-      </c>
-      <c r="H25" s="4">
-        <v>19.502499770521581</v>
-      </c>
-      <c r="I25" s="9">
-        <f t="shared" si="0"/>
-        <v>227.76427105868788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="7">
-        <v>572.66999999999996</v>
-      </c>
-      <c r="B26" s="1">
-        <v>9.6732799999999344</v>
-      </c>
-      <c r="C26" s="2">
-        <v>9.1738560987238615E-4</v>
-      </c>
-      <c r="D26" s="14">
-        <v>22.19</v>
-      </c>
-      <c r="E26" s="4">
-        <v>10.703198932923751</v>
-      </c>
-      <c r="F26" s="8">
-        <v>4.9824792863695712E-2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>11.486801066992665</v>
-      </c>
-      <c r="H26" s="4">
-        <v>22.189999999916417</v>
-      </c>
-      <c r="I26" s="9">
-        <f t="shared" si="0"/>
-        <v>239.25107212568054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>596.66999999999996</v>
-      </c>
-      <c r="B27" s="10">
-        <v>9.8452819999999903</v>
-      </c>
-      <c r="C27" s="11">
-        <v>8.8481109603465169E-4</v>
-      </c>
-      <c r="D27" s="12">
-        <v>22.387500000000003</v>
-      </c>
-      <c r="E27" s="4">
-        <v>12.178130204926447</v>
-      </c>
-      <c r="F27" s="8">
-        <v>4.3588294652612034E-2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>10.209369979815278</v>
-      </c>
-      <c r="H27" s="4">
-        <v>22.387500184741725</v>
-      </c>
-      <c r="I27" s="9">
-        <f t="shared" si="0"/>
-        <v>249.46044210549582</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>620.66999999999996</v>
-      </c>
-      <c r="B28" s="10">
-        <v>10.017284000000048</v>
-      </c>
-      <c r="C28" s="11">
-        <v>8.5223658219691733E-4</v>
-      </c>
-      <c r="D28" s="12">
-        <v>22.585000000000001</v>
-      </c>
-      <c r="E28" s="4">
-        <v>12.286520503055018</v>
-      </c>
-      <c r="F28" s="8">
-        <v>4.3207195291492945E-2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>10.298469217826034</v>
-      </c>
-      <c r="H28" s="4">
-        <v>22.584989720881051</v>
-      </c>
-      <c r="I28" s="9">
-        <f t="shared" si="0"/>
-        <v>259.75891132332185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>644.66999999999996</v>
-      </c>
-      <c r="B29" s="10">
-        <v>10.189286000000106</v>
-      </c>
-      <c r="C29" s="11">
-        <v>8.1966206835918287E-4</v>
-      </c>
-      <c r="D29" s="12">
-        <v>22.782499999999999</v>
-      </c>
-      <c r="E29" s="4">
-        <v>12.394910801183586</v>
-      </c>
-      <c r="F29" s="8">
-        <v>4.2839158281365322E-2</v>
-      </c>
-      <c r="G29" s="4">
-        <v>10.387589406641936</v>
-      </c>
-      <c r="H29" s="4">
-        <v>22.782500207825521</v>
-      </c>
-      <c r="I29" s="9">
-        <f t="shared" si="0"/>
-        <v>270.1465007299638</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>668.67</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10.361288000000162</v>
-      </c>
-      <c r="C30" s="2">
-        <v>7.8708755452144841E-4</v>
-      </c>
-      <c r="D30" s="14">
-        <v>22.98</v>
-      </c>
-      <c r="E30" s="4">
-        <v>12.503301099312155</v>
-      </c>
-      <c r="F30" s="8">
-        <v>4.2483398902612622E-2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>10.47669879503605</v>
-      </c>
-      <c r="H30" s="4">
-        <v>22.979999894348204</v>
-      </c>
-      <c r="I30" s="9">
-        <f t="shared" si="0"/>
-        <v>280.62319952499985</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BAA0AA-0884-4F1E-AC58-398E1F562D3E}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -7166,7 +5344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BFF96C-965D-46AE-AE71-2FB58BFD2803}">
   <dimension ref="A1:I30"/>
   <sheetViews>
